--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476598.060668669</v>
+        <v>1494972.750134789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>298.6438319499647</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.960716884751896</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.96214174992418</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>212.1845629260754</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>64.444767942859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12.54459899127134</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>110.2526535426571</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>176.097474643207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>266.3876269489986</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.05778639582299</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.6184701423857</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>47.27820527287692</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>140.5678108961688</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>27.58860859818575</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>265.4235929464946</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>131.4948651179008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.90088782653663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>109.7395205132413</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>64.34190763938432</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>276.2330889766189</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>82.42276491551922</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7644211441604659</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>19.44625325864656</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>146.2618317737553</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>15.02228922158442</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>920.0552989279781</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>920.0552989279781</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>920.0552989279781</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>509.0693941383706</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>58.95380695647748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647748</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647748</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>714.0258107216623</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>714.0258107216623</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>714.0258107216623</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>714.0258107216623</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>424.8522003762303</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>424.8522003762303</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W4" t="n">
-        <v>424.8522003762303</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>616.7626674966796</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>616.7626674966796</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1958.288858935031</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,7 +4799,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.1897464970881</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>359.1897464970881</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>359.1897464970881</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>359.1897464970881</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>201.4413739296182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>65.11246302826646</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>490.0065396637069</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>490.0065396637069</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.1897464970881</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5042,13 +5042,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,19 +5124,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +5276,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,7 +5312,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>144.9728543621817</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1336.117678709276</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W19" t="n">
-        <v>1046.700508672316</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>326.6213191924214</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.1480540508779</v>
+        <v>3904.075074409315</v>
       </c>
       <c r="C22" t="n">
-        <v>822.1480540508779</v>
+        <v>3904.075074409315</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>822.1480540508779</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V22" t="n">
-        <v>822.1480540508779</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W22" t="n">
-        <v>822.1480540508779</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X22" t="n">
-        <v>822.1480540508779</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="Y22" t="n">
-        <v>822.1480540508779</v>
+        <v>4027.624275985003</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,19 +5978,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705744</v>
+        <v>889.3582447451976</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>720.4220618172907</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>570.3054224049549</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>422.3923288225618</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>275.5023813246514</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>976.1271430121219</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X25" t="n">
-        <v>748.1375921141046</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705744</v>
+        <v>1071.006709575437</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,13 +6260,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>4571.437402977332</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>4438.614306898644</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>4217.821727755114</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,58 +6455,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4503.13917884751</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4571.72593422785</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.72593422785</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>4571.72593422785</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>4571.72593422785</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,31 +6683,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,13 +6719,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847512</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919605</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.08635650727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426966</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746787</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.68998529473</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4684.787643677751</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4684.787643677751</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4684.787643677751</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V34" t="n">
-        <v>4684.787643677751</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W34" t="n">
-        <v>4684.787643677751</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X34" t="n">
-        <v>4684.787643677751</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.787643677751</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,22 +6923,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>610.6003310670585</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>610.6003310670585</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4503.13917884751</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4503.13917884751</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4503.13917884751</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4503.13917884751</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>4503.13917884751</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>4503.13917884751</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7166,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,13 +7208,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.007103038344</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>675.007103038344</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>675.007103038344</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7357,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X40" t="n">
-        <v>675.007103038344</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.007103038344</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>3906.579989278978</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>3906.579989278978</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4713.115349000398</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>4423.986710213956</v>
       </c>
       <c r="V43" t="n">
-        <v>1484.03077229167</v>
+        <v>4423.986710213956</v>
       </c>
       <c r="W43" t="n">
-        <v>1194.613602254709</v>
+        <v>4134.569540176995</v>
       </c>
       <c r="X43" t="n">
-        <v>966.6240513566914</v>
+        <v>3906.579989278978</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>3906.579989278978</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,19 +7658,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3926.121309839312</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C46" t="n">
-        <v>3757.185126911405</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.06848749907</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014293</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.725934227851</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>4571.725934227851</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>4556.551904711099</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>4328.562353813082</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y46" t="n">
-        <v>4107.769774669552</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>297.2466435761029</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>62.79465928983183</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>119.9686158257509</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,10 +23944,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>57.51827062200606</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.9049598651918</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,16 +24421,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>21.09940539009642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>94.21479027113631</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.9310923554007</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>35.68152750968993</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>133.5789023442189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>10.0042634219584</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,16 +25312,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.99828310741202</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>175.2944832206708</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6695415024087</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>206.2634021303906</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,13 +25837,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>75.28572928463393</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>237.4010000402575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>271.5007091150066</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="L2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357220.9938446525</v>
+        <v>-354692.6726812102</v>
       </c>
       <c r="C6" t="n">
-        <v>232746.885369892</v>
+        <v>235275.2065333341</v>
       </c>
       <c r="D6" t="n">
-        <v>232746.885369892</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="E6" t="n">
-        <v>-179250.8555306616</v>
+        <v>-177216.0362926647</v>
       </c>
       <c r="F6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="G6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842313</v>
       </c>
       <c r="H6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="I6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842317</v>
       </c>
       <c r="J6" t="n">
-        <v>169485.9617536417</v>
+        <v>171520.7809916386</v>
       </c>
       <c r="K6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="L6" t="n">
-        <v>345909.1809462343</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="M6" t="n">
-        <v>211108.1657123977</v>
+        <v>213142.9849503944</v>
       </c>
       <c r="N6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="O6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842317</v>
       </c>
       <c r="P6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842316</v>
       </c>
     </row>
   </sheetData>
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1403380708302</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>151.2101719570433</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.16060820499012</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>170.5492787374052</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>321.7931707131946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>133.8893636552978</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>101.8928854073618</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>189.1754171278006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>103.3434737294704</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>34.14217279271402</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>5.527068807633242</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>724.9245949685507</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>630.4412169741157</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>269.8880742213565</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>425.9753597058697</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1494972.750134789</v>
+        <v>1570502.419799593</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>123.5492650282467</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.960716884751896</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.1845629260754</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>163.3904686173342</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>12.54459899127134</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>124.2196940949804</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>21.66415716321131</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>266.3876269489986</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="S10" t="n">
-        <v>206.6184701423857</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>47.27820527287692</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.3137095599312</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.58860859818575</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>152.6276470398236</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7395205132413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>173.4405054918804</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.6255032160661</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>276.2330889766189</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>82.42276491551922</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>66.14085215535448</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>88.52416382797664</v>
       </c>
       <c r="X40" t="n">
-        <v>19.44625325864656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>146.2618317737553</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>750.1700033293573</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>332.2061952275442</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.8899898843844</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>58.95380695647748</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>58.95380695647748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>58.95380695647748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>58.95380695647748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>58.95380695647748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146241</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1110.630459970126</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>699.6445551805186</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1936.146930626913</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4649,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>270.0191909330953</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>270.0191909330953</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>551.8221175621458</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>382.8223173004782</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>225.0739447330083</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>967.4725696124262</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>967.4725696124262</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>967.4725696124262</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>556.4866648228187</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916692</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1766.511549857098</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S10" t="n">
-        <v>490.0065396637069</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>490.0065396637069</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.9728543621817</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273993</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904388</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>326.6213191924214</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y19" t="n">
-        <v>326.6213191924214</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3904.075074409315</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>3904.075074409315</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>3753.958434996979</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414586</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021964</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>4027.624275985003</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>4027.624275985003</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y22" t="n">
-        <v>4027.624275985003</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,19 +6001,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>889.3582447451976</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C25" t="n">
-        <v>720.4220618172907</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D25" t="n">
-        <v>570.3054224049549</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E25" t="n">
-        <v>422.3923288225618</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F25" t="n">
-        <v>275.5023813246514</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.996260473455</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="X25" t="n">
-        <v>1071.006709575437</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="Y25" t="n">
-        <v>1071.006709575437</v>
+        <v>3628.091576844582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>3578.842145943456</v>
       </c>
     </row>
     <row r="29">
@@ -6464,13 +6466,13 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6488,7 +6490,7 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.1765965867977</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C31" t="n">
-        <v>376.2404136588908</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D31" t="n">
-        <v>376.2404136588908</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E31" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028583</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170374</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,16 +6700,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="U34" t="n">
-        <v>1219.892948359297</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="V34" t="n">
-        <v>965.2084601534104</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="W34" t="n">
-        <v>675.7912901164498</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="X34" t="n">
-        <v>447.8017392184324</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.8017392184324</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6919,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6944,7 +6946,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6959,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>760.7169704793943</v>
+        <v>4458.413529040522</v>
       </c>
       <c r="C37" t="n">
-        <v>760.7169704793943</v>
+        <v>4289.477346112615</v>
       </c>
       <c r="D37" t="n">
-        <v>610.6003310670585</v>
+        <v>4139.360706700279</v>
       </c>
       <c r="E37" t="n">
-        <v>610.6003310670585</v>
+        <v>3991.447613117886</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>3844.557665619976</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3676.382343939797</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3525.96433548774</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>4640.061993870761</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.156678913841</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>1133.156678913841</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.513998854602</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y40" t="n">
-        <v>892.7214197110717</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.579989278978</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>3906.579989278978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4713.115349000398</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4423.986710213956</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V43" t="n">
-        <v>4423.986710213956</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W43" t="n">
-        <v>4134.569540176995</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>3906.579989278978</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.579989278978</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.9054447954965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C46" t="n">
-        <v>130.9054447954965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D46" t="n">
-        <v>130.9054447954965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954965</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9054447954965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9054447954965</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>119.9686158257509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.51827062200606</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.9049598651918</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>133.8953512967674</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542497</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>35.68152750968993</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>36.29530676753711</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>10.0042634219584</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.99828310741202</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>44.27839330891752</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>197.9988345086144</v>
       </c>
       <c r="X40" t="n">
-        <v>206.2634021303906</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>75.28572928463393</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>113.0824928447106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185696</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="K2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="M2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26430,13 +26432,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26476,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871661</v>
@@ -26500,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354692.6726812102</v>
+        <v>-354692.6726812104</v>
       </c>
       <c r="C6" t="n">
         <v>235275.2065333341</v>
       </c>
       <c r="D6" t="n">
-        <v>235275.2065333342</v>
+        <v>235275.2065333341</v>
       </c>
       <c r="E6" t="n">
         <v>-177216.0362926647</v>
       </c>
       <c r="F6" t="n">
+        <v>347944.0001842313</v>
+      </c>
+      <c r="G6" t="n">
         <v>347944.0001842314</v>
-      </c>
-      <c r="G6" t="n">
-        <v>347944.0001842313</v>
       </c>
       <c r="H6" t="n">
         <v>347944.0001842316</v>
       </c>
       <c r="I6" t="n">
-        <v>347944.0001842317</v>
+        <v>347944.0001842313</v>
       </c>
       <c r="J6" t="n">
         <v>171520.7809916386</v>
       </c>
       <c r="K6" t="n">
+        <v>347944.0001842316</v>
+      </c>
+      <c r="L6" t="n">
+        <v>347944.0001842316</v>
+      </c>
+      <c r="M6" t="n">
+        <v>213142.9849503943</v>
+      </c>
+      <c r="N6" t="n">
         <v>347944.0001842314</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>347944.0001842314</v>
-      </c>
-      <c r="M6" t="n">
-        <v>213142.9849503944</v>
-      </c>
-      <c r="N6" t="n">
-        <v>347944.0001842316</v>
-      </c>
-      <c r="O6" t="n">
-        <v>347944.0001842317</v>
       </c>
       <c r="P6" t="n">
         <v>347944.0001842316</v>
@@ -26741,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>200.3735077361105</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2101719570433</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.5492787374052</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>250.3937014034608</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>133.8893636552978</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>10.74592769735784</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>392.1200128575837</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>103.3434737294704</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>116.0611043592034</v>
       </c>
       <c r="S10" t="n">
-        <v>5.527068807633242</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,13 +37396,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1563485.404907881</v>
+        <v>1568424.667756914</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.42119448601593</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52.13932820450181</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>84.83883374906102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67.24036028042099</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>128.0041052504326</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,10 +946,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>27.45797858609776</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.01792537524334</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168632</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>42.41159191917734</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>135.0538410796061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>160.7539405631291</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>88.9156920245631</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>169.827716759979</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>153.0952537370639</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>95.77850328492714</v>
       </c>
       <c r="D25" t="n">
-        <v>146.1854691670927</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385057</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>82.55827236177834</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>169.8277167599795</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113201</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>54.40320730981959</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>38.59744043553486</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>57.85017494300162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>66.27128255607117</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1238.795691934384</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>827.8097871447767</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>409.8459790429636</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>82.6512590789664</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2644.483102932867</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2468.305615247037</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2249.6709482191</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.7554128984184</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8625376591735</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286581</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286581</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1860.708406770827</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.745889830415</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1133.480191223665</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>747.6919386254203</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>336.7060338358128</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.2710210862863</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>127.3348381583794</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>127.3348381583794</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1533.27522618254</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733132</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224084</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791255</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413575</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.875066246662</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641977</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598698</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150934</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5062,10 +5062,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>286.9470307957491</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5205,7 +5205,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345004</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X13" t="n">
-        <v>783.952440441969</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>468.5954956259889</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,22 +5302,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>872.6898113736389</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>1054.338276203879</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>333.9208692860377</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>333.9208692860377</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>187.0309217881274</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035286</v>
       </c>
       <c r="T22" t="n">
-        <v>1327.373122315499</v>
+        <v>964.1357418247915</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.244483529058</v>
+        <v>809.4940713833128</v>
       </c>
       <c r="V22" t="n">
-        <v>783.5599953231707</v>
+        <v>554.8095831774259</v>
       </c>
       <c r="W22" t="n">
-        <v>494.1428252862101</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>265.3924131404653</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6074,19 +6074,19 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.0071030383449</v>
+        <v>807.0580565471723</v>
       </c>
       <c r="C25" t="n">
-        <v>675.0071030383449</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247867</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383449</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383449</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383449</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>675.0071030383449</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.0071030383449</v>
+        <v>988.7065213774121</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>761.6147079354644</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028593</v>
+        <v>592.6785250075575</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028593</v>
+        <v>442.5618855952217</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028593</v>
+        <v>442.5618855952217</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028593</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028593</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028593</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1327.3731223155</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1327.3731223155</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1038.244483529058</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>783.5599953231708</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>494.1428252862102</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>943.2631727657041</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687014</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V31" t="n">
-        <v>755.1831334811267</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441661</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X31" t="n">
-        <v>426.7786498729187</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.7786498729187</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6709,19 +6709,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6779,7 +6779,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6861,10 +6861,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6885,16 +6885,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,10 +6928,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,7 +7016,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7098,10 +7098,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471194</v>
@@ -7131,16 +7131,16 @@
         <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765191</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,7 +7253,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>760.7169704793947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>591.7807875514878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>591.7807875514878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.8676939690947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>443.8676939690947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>275.6923722889153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7335,10 +7335,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557903</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793947</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,28 +7587,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7639,28 +7639,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169141994</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100641</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100638</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.8352291794505</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>90.65581430943107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>6.492880535498756</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>77.57787643881449</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>51.71984429841024</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.1420986615134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>71.46831781370069</v>
       </c>
       <c r="D25" t="n">
-        <v>2.430003851119608</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.86277566115291</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.09309322362378</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>167.1443537485696</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>187.1122149535023</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.3938331833852</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>228.6728233935894</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>82.64254581146496</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584574</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>927882.589258457</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>927882.589258457</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
@@ -26331,31 +26331,31 @@
         <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852502</v>
-      </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852501</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.987022516113938e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.777321826</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26438,28 +26438,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871669</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871668</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354692.6726812102</v>
+        <v>-354692.6726812104</v>
       </c>
       <c r="C6" t="n">
-        <v>235275.2065333343</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>235275.2065333334</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="E6" t="n">
-        <v>-178190.627552386</v>
+        <v>-177313.4954186373</v>
       </c>
       <c r="F6" t="n">
-        <v>346969.4089245099</v>
+        <v>347846.5410582593</v>
       </c>
       <c r="G6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582591</v>
       </c>
       <c r="H6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582593</v>
       </c>
       <c r="I6" t="n">
-        <v>346969.4089245093</v>
+        <v>347846.5410582591</v>
       </c>
       <c r="J6" t="n">
-        <v>170546.1897319165</v>
+        <v>171423.3218656662</v>
       </c>
       <c r="K6" t="n">
-        <v>346969.4089245098</v>
+        <v>347846.5410582593</v>
       </c>
       <c r="L6" t="n">
-        <v>346969.4089245094</v>
+        <v>347846.5410582591</v>
       </c>
       <c r="M6" t="n">
-        <v>212168.3936906724</v>
+        <v>213045.5258244219</v>
       </c>
       <c r="N6" t="n">
-        <v>346969.4089245094</v>
+        <v>347846.541058259</v>
       </c>
       <c r="O6" t="n">
-        <v>346969.4089245094</v>
+        <v>347846.5410582595</v>
       </c>
       <c r="P6" t="n">
-        <v>346969.4089245095</v>
+        <v>347846.5410582594</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170872</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,28 +26795,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545565</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>123.5101217588453</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.339074370309888</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>82.40798734956681</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>78.18068774251026</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>285.7800647703624</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>10.52067551358147</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>118.9759840604714</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481157</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>314.2200132808102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853693</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491422</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352316</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554475</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633811</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473563</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141122</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188926</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890693</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396487</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639067</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034989</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061916</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078621</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644451</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813584</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302251</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175858</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383812</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701168</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33432,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33453,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33581,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33593,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33669,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33690,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33818,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33830,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33906,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33927,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34055,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34067,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770702</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047508</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137343</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713965</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873161</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>462.3874039146948</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056088</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>438.0705020605305</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M27" t="n">
-        <v>438.0705020605303</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37077,22 +37077,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37317,13 +37317,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37551,22 +37551,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
@@ -37633,19 +37633,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
